--- a/data/sckjc_summer2025.xlsx
+++ b/data/sckjc_summer2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC8C9203-D4C0-4DF5-BB7E-7E8E85ED27AF}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5339EEF-CA1F-4569-A8AD-5C3368A91E5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
@@ -74,12 +74,6 @@
     <t>Beta 2 adrenergic receptor gene methylation activates innate lymphoid cells to drive hypertension in lymphocyte deficient hosts</t>
   </si>
   <si>
-    <t>July 5th</t>
-  </si>
-  <si>
-    <t>August 2nd</t>
-  </si>
-  <si>
     <t>Environmental pollution and kidney diseases</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/29479079/</t>
+  </si>
+  <si>
+    <t>August 5th</t>
+  </si>
+  <si>
+    <t>September 2nd</t>
   </si>
 </sst>
 </file>
@@ -524,13 +524,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.85546875" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -563,16 +563,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
